--- a/semantic_validity_sample/Anon2Evaluation.xlsx
+++ b/semantic_validity_sample/Anon2Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Documents\GitHub\ArtGraphsLandscapeAnalysis\semantic_validity_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659BAE27-2CCC-4411-8E42-744128A8871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52A68C9-42D2-4C7C-9555-B52B91ADF9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="semantic_validity_arco" sheetId="5" r:id="rId1"/>
@@ -10409,8 +10409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD747725-7CCF-4771-A636-3202A5D0E6A6}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12464,8 +12464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F567346A-C3EB-4774-9FE6-A58DB51F58C6}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13925,8 +13925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA260DD-3726-48EA-B38A-FD0D9A062B1B}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14796,6 +14796,9 @@
       </c>
       <c r="C53" t="s">
         <v>1875</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -19801,7 +19804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1C5C93-8340-496E-939D-204816924469}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
